--- a/docs/UKCore-Organization-1-0-0.xlsx
+++ b/docs/UKCore-Organization-1-0-0.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$87</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="362">
   <si>
     <t>Path</t>
   </si>
@@ -906,19 +906,61 @@
     <t>Organization.partOf.identifier.assigner</t>
   </si>
   <si>
+    <t>Organization.partOf.identifier.assigner.id</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.extension</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.reference</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.type</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.id</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.extension</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.use</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.type</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.system</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.value</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.period</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>Organization.partOf.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Organization.contact</t>
@@ -1249,7 +1291,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM73"/>
+  <dimension ref="A1:AM87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1258,7 +1300,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.18359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.5390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.2421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -6786,20 +6828,18 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -6848,7 +6888,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>288</v>
+        <v>124</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6860,13 +6900,13 @@
         <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6877,11 +6917,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6900,20 +6940,18 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>291</v>
+        <v>96</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>292</v>
+        <v>127</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
       </c>
@@ -6949,19 +6987,19 @@
         <v>40</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>289</v>
+        <v>130</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6973,13 +7011,13 @@
         <v>40</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>295</v>
+        <v>125</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -6990,7 +7028,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7010,18 +7048,20 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>122</v>
+        <v>258</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7070,7 +7110,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7079,16 +7119,16 @@
         <v>49</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -7099,18 +7139,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7119,19 +7159,19 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>96</v>
+        <v>264</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>127</v>
+        <v>265</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>98</v>
+        <v>266</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7157,13 +7197,13 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
@@ -7181,25 +7221,25 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>130</v>
+        <v>269</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
@@ -7210,43 +7250,41 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7294,25 +7332,25 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>92</v>
+        <v>275</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7323,7 +7361,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7346,18 +7384,16 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>304</v>
+        <v>122</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7381,13 +7417,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7405,7 +7441,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>303</v>
+        <v>124</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7417,13 +7453,13 @@
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>309</v>
+        <v>125</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -7434,18 +7470,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>40</v>
@@ -7457,18 +7493,18 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>311</v>
+        <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>312</v>
+        <v>96</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7504,37 +7540,37 @@
         <v>40</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>316</v>
+        <v>125</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -7545,7 +7581,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7556,29 +7592,31 @@
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>318</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N57" t="s" s="2">
-        <v>320</v>
+        <v>135</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7603,13 +7641,13 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>40</v>
@@ -7627,13 +7665,13 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>317</v>
+        <v>139</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
@@ -7642,10 +7680,10 @@
         <v>61</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>321</v>
+        <v>92</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>322</v>
+        <v>140</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -7656,7 +7694,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7676,20 +7714,22 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>324</v>
+        <v>143</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="N58" t="s" s="2">
-        <v>326</v>
+        <v>146</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7714,13 +7754,13 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>40</v>
@@ -7738,7 +7778,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>323</v>
+        <v>150</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7753,10 +7793,10 @@
         <v>61</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>327</v>
+        <v>151</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>328</v>
+        <v>140</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7767,7 +7807,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7778,7 +7818,7 @@
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -7787,20 +7827,22 @@
         <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>330</v>
+        <v>63</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>331</v>
+        <v>153</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="N59" t="s" s="2">
-        <v>333</v>
+        <v>156</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -7813,7 +7855,7 @@
         <v>40</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>40</v>
@@ -7849,13 +7891,13 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>329</v>
+        <v>159</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
@@ -7864,13 +7906,13 @@
         <v>61</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>40</v>
@@ -7878,7 +7920,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7898,18 +7940,20 @@
         <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -7922,7 +7966,7 @@
         <v>40</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>40</v>
@@ -7958,7 +8002,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -7970,16 +8014,16 @@
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
@@ -7987,18 +8031,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8007,20 +8051,18 @@
         <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8057,40 +8099,40 @@
         <v>40</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
@@ -8098,7 +8140,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8121,16 +8163,16 @@
         <v>50</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8180,7 +8222,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8189,19 +8231,19 @@
         <v>49</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
@@ -8209,7 +8251,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8232,16 +8274,16 @@
         <v>50</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8267,13 +8309,13 @@
         <v>40</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>40</v>
@@ -8291,7 +8333,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8320,7 +8362,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8343,16 +8385,16 @@
         <v>50</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8402,7 +8444,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8420,7 +8462,7 @@
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>275</v>
+        <v>92</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -8431,7 +8473,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8442,7 +8484,7 @@
         <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>40</v>
@@ -8454,16 +8496,20 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>51</v>
+        <v>304</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>122</v>
+        <v>305</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8511,25 +8557,25 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>125</v>
+        <v>309</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -8540,18 +8586,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
@@ -8563,17 +8609,15 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8610,31 +8654,31 @@
         <v>40</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>40</v>
@@ -8651,43 +8695,41 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>40</v>
       </c>
@@ -8711,13 +8753,13 @@
         <v>40</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>40</v>
@@ -8735,25 +8777,25 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
@@ -8764,42 +8806,42 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>143</v>
+        <v>314</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>40</v>
@@ -8824,13 +8866,13 @@
         <v>40</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>40</v>
@@ -8848,25 +8890,25 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
@@ -8877,7 +8919,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8897,22 +8939,20 @@
         <v>40</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>153</v>
+        <v>318</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>156</v>
+        <v>320</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -8925,7 +8965,7 @@
         <v>40</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>40</v>
@@ -8937,13 +8977,13 @@
         <v>40</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>40</v>
+        <v>321</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>40</v>
+        <v>322</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>40</v>
@@ -8961,7 +9001,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -8976,13 +9016,13 @@
         <v>61</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
@@ -8990,7 +9030,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9010,21 +9050,21 @@
         <v>40</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>51</v>
+        <v>325</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
       </c>
@@ -9036,7 +9076,7 @@
         <v>40</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>40</v>
@@ -9072,7 +9112,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>168</v>
+        <v>324</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9087,13 +9127,13 @@
         <v>61</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>169</v>
+        <v>329</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>40</v>
@@ -9101,7 +9141,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9112,7 +9152,7 @@
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>40</v>
@@ -9121,19 +9161,21 @@
         <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>174</v>
+        <v>332</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>175</v>
+        <v>333</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9181,13 +9223,13 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>176</v>
+        <v>331</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
@@ -9196,13 +9238,13 @@
         <v>61</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>177</v>
+        <v>335</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>178</v>
+        <v>336</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>40</v>
@@ -9210,7 +9252,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9230,21 +9272,21 @@
         <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>182</v>
+        <v>338</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>40</v>
       </c>
@@ -9292,7 +9334,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>185</v>
+        <v>337</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9307,13 +9349,13 @@
         <v>61</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>186</v>
+        <v>341</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>187</v>
+        <v>342</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>40</v>
@@ -9321,7 +9363,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9332,7 +9374,7 @@
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>40</v>
@@ -9341,21 +9383,21 @@
         <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>51</v>
+        <v>344</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>40</v>
       </c>
@@ -9403,13 +9445,13 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>288</v>
+        <v>343</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>40</v>
@@ -9421,17 +9463,1571 @@
         <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AL73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AL76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM73">
+  <autoFilter ref="A1:AM87">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9441,7 +11037,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI86">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/UKCore-Organization-1-0-0.xlsx
+++ b/docs/UKCore-Organization-1-0-0.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$157</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4529" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5509" uniqueCount="418">
   <si>
     <t>Path</t>
   </si>
@@ -999,6 +999,48 @@
     <t>Organization.partOf.identifier.assigner.identifier.assigner</t>
   </si>
   <si>
+    <t>Organization.partOf.identifier.assigner.identifier.assigner.id</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.assigner.extension</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.assigner.reference</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.assigner.type</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.assigner.identifier</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.assigner.identifier.id</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.assigner.identifier.extension</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.assigner.identifier.use</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.assigner.identifier.type</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.assigner.identifier.system</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.assigner.identifier.value</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.assigner.identifier.period</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.assigner.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier.assigner.identifier.assigner.display</t>
+  </si>
+  <si>
     <t>Organization.partOf.identifier.assigner.display</t>
   </si>
   <si>
@@ -1221,6 +1263,48 @@
   </si>
   <si>
     <t>Organization.endpoint.identifier.assigner.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Organization.endpoint.identifier.assigner.identifier.assigner.id</t>
+  </si>
+  <si>
+    <t>Organization.endpoint.identifier.assigner.identifier.assigner.extension</t>
+  </si>
+  <si>
+    <t>Organization.endpoint.identifier.assigner.identifier.assigner.reference</t>
+  </si>
+  <si>
+    <t>Organization.endpoint.identifier.assigner.identifier.assigner.type</t>
+  </si>
+  <si>
+    <t>Organization.endpoint.identifier.assigner.identifier.assigner.identifier</t>
+  </si>
+  <si>
+    <t>Organization.endpoint.identifier.assigner.identifier.assigner.identifier.id</t>
+  </si>
+  <si>
+    <t>Organization.endpoint.identifier.assigner.identifier.assigner.identifier.extension</t>
+  </si>
+  <si>
+    <t>Organization.endpoint.identifier.assigner.identifier.assigner.identifier.use</t>
+  </si>
+  <si>
+    <t>Organization.endpoint.identifier.assigner.identifier.assigner.identifier.type</t>
+  </si>
+  <si>
+    <t>Organization.endpoint.identifier.assigner.identifier.assigner.identifier.system</t>
+  </si>
+  <si>
+    <t>Organization.endpoint.identifier.assigner.identifier.assigner.identifier.value</t>
+  </si>
+  <si>
+    <t>Organization.endpoint.identifier.assigner.identifier.assigner.identifier.period</t>
+  </si>
+  <si>
+    <t>Organization.endpoint.identifier.assigner.identifier.assigner.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Organization.endpoint.identifier.assigner.identifier.assigner.display</t>
   </si>
   <si>
     <t>Organization.endpoint.identifier.assigner.display</t>
@@ -1375,7 +1459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM129"/>
+  <dimension ref="A1:AM157"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1384,7 +1468,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.81640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="72.453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.2421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -11463,20 +11547,18 @@
         <v>40</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>40</v>
@@ -11525,7 +11607,7 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11537,13 +11619,13 @@
         <v>40</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>40</v>
@@ -11558,14 +11640,14 @@
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>40</v>
@@ -11574,19 +11656,19 @@
         <v>40</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>221</v>
+        <v>98</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11624,37 +11706,37 @@
         <v>40</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>40</v>
@@ -11676,7 +11758,7 @@
         <v>41</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>40</v>
@@ -11685,23 +11767,21 @@
         <v>40</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>318</v>
+        <v>51</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>319</v>
+        <v>192</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>320</v>
+        <v>193</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>40</v>
       </c>
@@ -11749,16 +11829,16 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>317</v>
+        <v>195</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>61</v>
@@ -11767,7 +11847,7 @@
         <v>40</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>323</v>
+        <v>92</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>40</v>
@@ -11778,7 +11858,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11798,18 +11878,20 @@
         <v>40</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>40</v>
@@ -11834,13 +11916,13 @@
         <v>40</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>40</v>
@@ -11858,7 +11940,7 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -11870,13 +11952,13 @@
         <v>40</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>40</v>
@@ -11887,18 +11969,18 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>40</v>
@@ -11907,19 +11989,19 @@
         <v>40</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -11969,25 +12051,25 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>40</v>
@@ -11998,43 +12080,39 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>327</v>
+        <v>40</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>328</v>
+        <v>122</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>40</v>
       </c>
@@ -12082,25 +12160,25 @@
         <v>40</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>330</v>
+        <v>124</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>40</v>
@@ -12111,18 +12189,18 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>40</v>
@@ -12134,18 +12212,18 @@
         <v>40</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>332</v>
+        <v>96</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>40</v>
       </c>
@@ -12169,49 +12247,49 @@
         <v>40</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>335</v>
+        <v>40</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC97" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>331</v>
+        <v>130</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>337</v>
+        <v>125</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>40</v>
@@ -12222,7 +12300,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12239,23 +12317,25 @@
         <v>40</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>339</v>
+        <v>69</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>340</v>
+        <v>132</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N98" t="s" s="2">
-        <v>342</v>
+        <v>135</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>40</v>
@@ -12280,13 +12360,13 @@
         <v>40</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>40</v>
@@ -12304,7 +12384,7 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>338</v>
+        <v>139</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -12319,10 +12399,10 @@
         <v>61</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>343</v>
+        <v>92</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>344</v>
+        <v>140</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>40</v>
@@ -12333,7 +12413,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12344,7 +12424,7 @@
         <v>41</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>40</v>
@@ -12353,20 +12433,22 @@
         <v>40</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>263</v>
+        <v>142</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>346</v>
+        <v>143</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="N99" t="s" s="2">
-        <v>348</v>
+        <v>146</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>40</v>
@@ -12391,13 +12473,13 @@
         <v>40</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>40</v>
@@ -12415,13 +12497,13 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>345</v>
+        <v>150</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>40</v>
@@ -12430,10 +12512,10 @@
         <v>61</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>349</v>
+        <v>151</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>40</v>
@@ -12444,7 +12526,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12464,20 +12546,22 @@
         <v>40</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>274</v>
+        <v>63</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>352</v>
+        <v>153</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M100" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="N100" t="s" s="2">
-        <v>354</v>
+        <v>156</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>40</v>
@@ -12490,7 +12574,7 @@
         <v>40</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>40</v>
@@ -12526,7 +12610,7 @@
         <v>40</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>351</v>
+        <v>159</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -12541,13 +12625,13 @@
         <v>61</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>355</v>
+        <v>160</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>356</v>
+        <v>161</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>40</v>
@@ -12555,7 +12639,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12566,7 +12650,7 @@
         <v>41</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>40</v>
@@ -12575,21 +12659,21 @@
         <v>40</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>358</v>
+        <v>51</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>359</v>
+        <v>164</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>40</v>
       </c>
@@ -12601,7 +12685,7 @@
         <v>40</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>40</v>
@@ -12637,13 +12721,13 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>357</v>
+        <v>168</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>40</v>
@@ -12652,13 +12736,13 @@
         <v>61</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>40</v>
@@ -12666,7 +12750,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12686,16 +12770,16 @@
         <v>40</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12746,7 +12830,7 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -12758,16 +12842,16 @@
         <v>40</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>40</v>
@@ -12775,18 +12859,18 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>40</v>
@@ -12795,19 +12879,19 @@
         <v>40</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -12845,40 +12929,40 @@
         <v>40</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD103" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>40</v>
@@ -12886,7 +12970,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12912,13 +12996,13 @@
         <v>51</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -12968,7 +13052,7 @@
         <v>40</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
@@ -12977,7 +13061,7 @@
         <v>49</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>61</v>
@@ -12997,7 +13081,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13020,16 +13104,16 @@
         <v>50</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -13055,13 +13139,13 @@
         <v>40</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>40</v>
@@ -13079,7 +13163,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13108,7 +13192,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13131,16 +13215,16 @@
         <v>50</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -13190,7 +13274,7 @@
         <v>40</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
@@ -13208,7 +13292,7 @@
         <v>40</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>40</v>
@@ -13219,7 +13303,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13230,7 +13314,7 @@
         <v>41</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>40</v>
@@ -13242,16 +13326,20 @@
         <v>40</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>51</v>
+        <v>332</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>122</v>
+        <v>333</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>40</v>
       </c>
@@ -13299,25 +13387,25 @@
         <v>40</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>124</v>
+        <v>331</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>40</v>
@@ -13328,18 +13416,18 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>40</v>
@@ -13351,17 +13439,15 @@
         <v>40</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>40</v>
@@ -13398,31 +13484,31 @@
         <v>40</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>40</v>
@@ -13439,43 +13525,41 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>40</v>
       </c>
@@ -13499,13 +13583,13 @@
         <v>40</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>40</v>
@@ -13523,25 +13607,25 @@
         <v>40</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>40</v>
@@ -13552,42 +13636,42 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>40</v>
+        <v>341</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>143</v>
+        <v>342</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>40</v>
@@ -13612,13 +13696,13 @@
         <v>40</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>40</v>
@@ -13636,25 +13720,25 @@
         <v>40</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>150</v>
+        <v>344</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>40</v>
@@ -13665,7 +13749,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13685,22 +13769,20 @@
         <v>40</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>153</v>
+        <v>346</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>156</v>
+        <v>348</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>40</v>
@@ -13713,7 +13795,7 @@
         <v>40</v>
       </c>
       <c r="S111" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="T111" t="s" s="2">
         <v>40</v>
@@ -13725,13 +13807,13 @@
         <v>40</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>40</v>
+        <v>349</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>40</v>
@@ -13749,7 +13831,7 @@
         <v>40</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>159</v>
+        <v>345</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>41</v>
@@ -13764,13 +13846,13 @@
         <v>61</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>161</v>
+        <v>351</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>40</v>
@@ -13778,7 +13860,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13798,21 +13880,21 @@
         <v>40</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>51</v>
+        <v>353</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>164</v>
+        <v>354</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>40</v>
       </c>
@@ -13824,7 +13906,7 @@
         <v>40</v>
       </c>
       <c r="S112" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="T112" t="s" s="2">
         <v>40</v>
@@ -13860,7 +13942,7 @@
         <v>40</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>168</v>
+        <v>352</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>41</v>
@@ -13875,13 +13957,13 @@
         <v>61</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>169</v>
+        <v>357</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>170</v>
+        <v>358</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>40</v>
@@ -13889,7 +13971,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13900,7 +13982,7 @@
         <v>41</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>40</v>
@@ -13909,19 +13991,21 @@
         <v>40</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>174</v>
+        <v>360</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>175</v>
+        <v>361</v>
       </c>
       <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
+      <c r="N113" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O113" t="s" s="2">
         <v>40</v>
       </c>
@@ -13969,13 +14053,13 @@
         <v>40</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>176</v>
+        <v>359</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>40</v>
@@ -13984,13 +14068,13 @@
         <v>61</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>177</v>
+        <v>363</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>178</v>
+        <v>364</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>40</v>
@@ -13998,7 +14082,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14018,21 +14102,21 @@
         <v>40</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>182</v>
+        <v>366</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N114" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O114" t="s" s="2">
         <v>40</v>
       </c>
@@ -14080,7 +14164,7 @@
         <v>40</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>185</v>
+        <v>365</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -14095,13 +14179,13 @@
         <v>61</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>186</v>
+        <v>369</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>187</v>
+        <v>370</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>40</v>
@@ -14109,7 +14193,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14120,7 +14204,7 @@
         <v>41</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>40</v>
@@ -14132,16 +14216,18 @@
         <v>40</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>51</v>
+        <v>372</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>122</v>
+        <v>373</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>123</v>
+        <v>374</v>
       </c>
       <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+      <c r="N115" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O115" t="s" s="2">
         <v>40</v>
       </c>
@@ -14189,19 +14275,19 @@
         <v>40</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>124</v>
+        <v>371</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>40</v>
@@ -14222,14 +14308,14 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>40</v>
@@ -14241,17 +14327,15 @@
         <v>40</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>40</v>
@@ -14288,31 +14372,31 @@
         <v>40</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>40</v>
@@ -14333,14 +14417,14 @@
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>40</v>
@@ -14349,19 +14433,19 @@
         <v>40</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -14399,37 +14483,37 @@
         <v>40</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>40</v>
@@ -14463,16 +14547,16 @@
         <v>50</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -14498,13 +14582,13 @@
         <v>40</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>40</v>
@@ -14522,7 +14606,7 @@
         <v>40</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>41</v>
@@ -14531,7 +14615,7 @@
         <v>49</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>61</v>
@@ -14574,16 +14658,16 @@
         <v>50</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -14609,13 +14693,13 @@
         <v>40</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>40</v>
@@ -14633,7 +14717,7 @@
         <v>40</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>41</v>
@@ -14651,7 +14735,7 @@
         <v>40</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>40</v>
@@ -14682,18 +14766,20 @@
         <v>40</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M120" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>40</v>
@@ -14742,7 +14828,7 @@
         <v>40</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>41</v>
@@ -14754,13 +14840,13 @@
         <v>40</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>40</v>
@@ -14775,14 +14861,14 @@
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>40</v>
@@ -14794,17 +14880,15 @@
         <v>40</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M121" s="2"/>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>40</v>
@@ -14841,31 +14925,31 @@
         <v>40</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AC121" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD121" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>40</v>
@@ -14886,39 +14970,37 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>40</v>
       </c>
@@ -14942,49 +15024,49 @@
         <v>40</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA122" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AB122" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AC122" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD122" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>40</v>
@@ -15012,25 +15094,25 @@
         <v>40</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I123" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>40</v>
@@ -15055,13 +15137,13 @@
         <v>40</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>40</v>
@@ -15079,7 +15161,7 @@
         <v>40</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
@@ -15094,7 +15176,7 @@
         <v>61</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>140</v>
@@ -15131,19 +15213,19 @@
         <v>50</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>40</v>
@@ -15156,7 +15238,7 @@
         <v>40</v>
       </c>
       <c r="S124" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>40</v>
@@ -15168,13 +15250,13 @@
         <v>40</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>40</v>
@@ -15192,7 +15274,7 @@
         <v>40</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
@@ -15207,13 +15289,13 @@
         <v>61</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>40</v>
@@ -15244,18 +15326,20 @@
         <v>50</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N125" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O125" t="s" s="2">
         <v>40</v>
       </c>
@@ -15267,7 +15351,7 @@
         <v>40</v>
       </c>
       <c r="S125" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="T125" t="s" s="2">
         <v>40</v>
@@ -15303,7 +15387,7 @@
         <v>40</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -15318,13 +15402,13 @@
         <v>61</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>40</v>
@@ -15355,15 +15439,17 @@
         <v>50</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M126" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>40</v>
@@ -15376,7 +15462,7 @@
         <v>40</v>
       </c>
       <c r="S126" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="T126" t="s" s="2">
         <v>40</v>
@@ -15412,7 +15498,7 @@
         <v>40</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -15427,13 +15513,13 @@
         <v>61</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>40</v>
@@ -15464,17 +15550,15 @@
         <v>50</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M127" s="2"/>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>40</v>
@@ -15523,7 +15607,7 @@
         <v>40</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>41</v>
@@ -15538,13 +15622,13 @@
         <v>61</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>40</v>
@@ -15575,16 +15659,16 @@
         <v>50</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -15634,7 +15718,7 @@
         <v>40</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -15649,13 +15733,13 @@
         <v>61</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>40</v>
@@ -15683,20 +15767,18 @@
         <v>40</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M129" s="2"/>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>40</v>
@@ -15745,35 +15827,3145 @@
         <v>40</v>
       </c>
       <c r="AE129" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" hidden="true">
+      <c r="A130" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N130" s="2"/>
+      <c r="O130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" hidden="true">
+      <c r="A131" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F131" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N131" s="2"/>
+      <c r="O131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P131" s="2"/>
+      <c r="Q131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" hidden="true">
+      <c r="A132" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F132" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N132" s="2"/>
+      <c r="O132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" hidden="true">
+      <c r="A133" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F133" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N133" s="2"/>
+      <c r="O133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM133" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" hidden="true">
+      <c r="A134" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P134" s="2"/>
+      <c r="Q134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" hidden="true">
+      <c r="A135" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F135" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N135" s="2"/>
+      <c r="O135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P135" s="2"/>
+      <c r="Q135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" hidden="true">
+      <c r="A136" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F136" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P136" s="2"/>
+      <c r="Q136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" hidden="true">
+      <c r="A137" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F137" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P137" s="2"/>
+      <c r="Q137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" hidden="true">
+      <c r="A138" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P138" s="2"/>
+      <c r="Q138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" hidden="true">
+      <c r="A139" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N139" s="2"/>
+      <c r="O139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P139" s="2"/>
+      <c r="Q139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" hidden="true">
+      <c r="A140" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P140" s="2"/>
+      <c r="Q140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" hidden="true">
+      <c r="A141" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" hidden="true">
+      <c r="A142" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" hidden="true">
+      <c r="A143" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N143" s="2"/>
+      <c r="O143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" hidden="true">
+      <c r="A144" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N144" s="2"/>
+      <c r="O144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" hidden="true">
+      <c r="A145" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N145" s="2"/>
+      <c r="O145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146" hidden="true">
+      <c r="A146" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N146" s="2"/>
+      <c r="O146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM146" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" hidden="true">
+      <c r="A147" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM147" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" hidden="true">
+      <c r="A148" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N148" s="2"/>
+      <c r="O148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P148" s="2"/>
+      <c r="Q148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM148" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" hidden="true">
+      <c r="A149" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F149" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P149" s="2"/>
+      <c r="Q149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" hidden="true">
+      <c r="A150" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F150" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P150" s="2"/>
+      <c r="Q150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM150" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" hidden="true">
+      <c r="A151" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F151" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P151" s="2"/>
+      <c r="Q151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S151" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL151" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM151" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="152" hidden="true">
+      <c r="A152" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F152" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N152" s="2"/>
+      <c r="O152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P152" s="2"/>
+      <c r="Q152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S152" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="T152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF152" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG152" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI152" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ152" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK152" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL152" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM152" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" hidden="true">
+      <c r="A153" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F153" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
+      <c r="O153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P153" s="2"/>
+      <c r="Q153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE153" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL153" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AM153" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" hidden="true">
+      <c r="A154" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F154" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N154" s="2"/>
+      <c r="O154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P154" s="2"/>
+      <c r="Q154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF154" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG154" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL154" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM154" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="155" hidden="true">
+      <c r="A155" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F155" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N155" s="2"/>
+      <c r="O155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P155" s="2"/>
+      <c r="Q155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE155" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AF129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI129" t="s" s="2">
+      <c r="AF155" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI155" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AJ129" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK129" t="s" s="2">
+      <c r="AJ155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK155" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AL129" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM129" t="s" s="2">
+      <c r="AL155" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM155" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="156" hidden="true">
+      <c r="A156" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F156" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N156" s="2"/>
+      <c r="O156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P156" s="2"/>
+      <c r="Q156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM156" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" hidden="true">
+      <c r="A157" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F157" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N157" s="2"/>
+      <c r="O157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P157" s="2"/>
+      <c r="Q157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM157" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM129">
+  <autoFilter ref="A1:AM157">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15783,7 +18975,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI128">
+  <conditionalFormatting sqref="A2:AI156">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
